--- a/HPC-ED.xlsx
+++ b/HPC-ED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE8F5A7-96E0-8249-92AA-A525F4C333E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F464622-49BD-7747-A618-EC90D8BD0DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="940" windowWidth="40480" windowHeight="25240" activeTab="4" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
+    <workbookView xWindow="8000" yWindow="880" windowWidth="40480" windowHeight="25240" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
   <sheets>
     <sheet name="About HPC-ED" sheetId="4" r:id="rId1"/>
@@ -4223,7 +4223,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -4245,7 +4245,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4367,7 +4367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240DDFF7-FACE-484B-8EC6-C41F27E154A7}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/HPC-ED.xlsx
+++ b/HPC-ED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F464622-49BD-7747-A618-EC90D8BD0DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1437B2D-7932-174B-9E7B-D8D5A22A0778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="880" windowWidth="40480" windowHeight="25240" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
+    <workbookView xWindow="13920" yWindow="500" windowWidth="40480" windowHeight="25240" activeTab="1" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
   <sheets>
     <sheet name="About HPC-ED" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Required Metadata" sheetId="5" r:id="rId3"/>
     <sheet name="Optional Metadata" sheetId="3" r:id="rId4"/>
     <sheet name="Example" sheetId="6" r:id="rId5"/>
+    <sheet name="DD" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,498 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Zilu Wang</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{489AE863-0F55-0249-863B-3AB85D6603A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A unique identifier for your material. It should begin with your Provider_ID, a colon, then an identifier for your material. Please see "Required Metadata" for full information. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8FA4943F-82B6-B840-851C-ADD39963E267}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">id is always </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>std</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DBBA31E7-6718-7840-9643-C474D95B9B25}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">visible_to is always </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>public</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{22D79FA0-F15B-F942-BA9B-2050AC96E89D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The title of your material, e.g. Intro to Slurm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{07B0B03C-D1C1-4047-9380-C2338B704B7C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A link to your material.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{97F3308F-1E91-194B-9E02-C83DE6368ADF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The tpye of URL given. Most common choice is </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>URL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A630260C-7F45-A143-873A-9D77064DE69D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Language the material is written in. For English, it is </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>en</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{6748CEF7-20EF-1045-9FCB-5787D197A063}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Whether the material charges for access. Typically, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>no</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> for free materials.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{486F9971-F7EA-A843-B6DD-6DA1BBE184A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>assigned Provider_ID. It is unique to your organization.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{163B61F6-A20D-F94C-80AD-6AA6352E109E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The abstract of your material.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{6610887A-01A8-D047-B3BA-E1A4AD32DE34}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The author(s) of the material. Use commas to separate for multiple auithors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0DCB87AB-DD4C-5444-8693-C946795298AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The level of skill needed to complete the material.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{8A5CB9B9-60A7-084C-872D-2F3A3F9F7C6D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The keywords that describe the material. What is the material about?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B78D26DE-8901-0F45-AF1E-AC5F431EE4C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The intended outcome of the material. What is your material hoping to achieve?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{D23DCBCE-1179-B74F-938E-5FE5E9D180F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The type of material. Is it a recorded lesson? A lesson plan? Or a textbook?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{84259A4E-83CF-A242-804E-32F472318B14}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The license of the material.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{735FFAD6-3E3D-B34A-AE43-1FF3EC6239F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The target audience of the material. Who is it intended for?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{93B901CA-2292-4A41-8B7D-3C1B19EAF3F2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The release date of the material, in </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ISO 8601 format.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">For example, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2023-11-05T08:15:30-05:00</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{EB8668CD-8D77-3943-A266-8407E4DA4327}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The start date of the material, in </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ISO 8601 format.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">For example, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2023-11-05T08:15:30-05:00</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{02812CFB-A1C5-6348-B889-28FBD49E9DD7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Estimated time to complete this material in minutes. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{D2B214C2-6EAC-3347-85CE-E0811831240A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From 0.0 to 5.0, the rating of the material.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>visible_to</t>
   </si>
@@ -151,18 +642,182 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>bibcode</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>EAN13</t>
+  </si>
+  <si>
+    <t>EISSN</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>IGSN</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>ISTC</t>
+  </si>
+  <si>
+    <t>LISSN</t>
+  </si>
+  <si>
+    <t>LSID</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>PURL</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>URN</t>
+  </si>
+  <si>
+    <t>w3id</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Remember</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>GPL</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>Researchers</t>
+  </si>
+  <si>
+    <t>Research groups</t>
+  </si>
+  <si>
+    <t>Research communities</t>
+  </si>
+  <si>
+    <t>Research projects</t>
+  </si>
+  <si>
+    <t>Research networks</t>
+  </si>
+  <si>
+    <t>Research managers</t>
+  </si>
+  <si>
+    <t>Research organizations</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Innovators</t>
+  </si>
+  <si>
+    <t>Providers</t>
+  </si>
+  <si>
+    <t>Funders</t>
+  </si>
+  <si>
+    <t>Research Infrastructure Managers</t>
+  </si>
+  <si>
+    <t>Resource Managers</t>
+  </si>
+  <si>
+    <t>Publishers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3901,6 +4556,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4223,7 +4882,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -4240,12 +4899,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8510D-CCDD-4E41-BA93-3E1A91BD7FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8510D-CCDD-4E41-BA93-3E1A91BD7FFA}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4326,7 +4985,77 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="invliad Duration" sqref="T1:T1048576" xr:uid="{D845AB4E-15B5-9549-9799-145B0E2D8B5A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="invalid Rating" sqref="U1:U1048576" xr:uid="{078FD35C-595F-C24E-A3D9-457C1E9CC555}">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="id must be std" xr:uid="{F956E478-1517-ED43-A9DE-5BE2BCF475E9}">
+          <x14:formula1>
+            <xm:f>DD!$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" xr:uid="{CC6555FD-9823-4441-9F54-74FF1CA5B257}">
+          <x14:formula1>
+            <xm:f>DD!$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{8D5190AE-7F28-954C-838D-66B714609024}">
+          <x14:formula1>
+            <xm:f>DD!$D$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{F6243247-7D04-C947-A899-E17E51129977}">
+          <x14:formula1>
+            <xm:f>DD!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{F305E065-8ED4-074D-86EA-40C8B819B081}">
+          <x14:formula1>
+            <xm:f>DD!$F$2:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{864FB277-AEAB-034A-8C57-51353B2B5C49}">
+          <x14:formula1>
+            <xm:f>DD!$G$2:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{A6851DD8-8D2F-EE4E-8A51-56503DF0B1C8}">
+          <x14:formula1>
+            <xm:f>DD!$H$2:$H$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>P1:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{5CA5B71E-F53D-2D4F-BADE-97AB96C938D9}">
+          <x14:formula1>
+            <xm:f>DD!$I$2:$I$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q1:Q1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{75694CD9-F75F-9544-8F15-2F5BBA9B26EF}">
+          <x14:formula1>
+            <xm:f>DD!$C$2:$C$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4368,7 +5097,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4516,4 +5245,259 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683CD10C-CB17-944A-A98A-18937D0E890D}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HPC-ED.xlsx
+++ b/HPC-ED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1437B2D-7932-174B-9E7B-D8D5A22A0778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5CCF0-4AB9-5245-B069-0EAC8F6E0671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="500" windowWidth="40480" windowHeight="25240" activeTab="1" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
+    <workbookView xWindow="13920" yWindow="500" windowWidth="40480" windowHeight="25240" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
   <sheets>
     <sheet name="About HPC-ED" sheetId="4" r:id="rId1"/>
@@ -4558,10 +4558,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4882,7 +4878,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -4903,7 +4899,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>

--- a/HPC-ED.xlsx
+++ b/HPC-ED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5CCF0-4AB9-5245-B069-0EAC8F6E0671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EE4C3-ACE8-2345-84B6-BB7730A4E5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="500" windowWidth="40480" windowHeight="25240" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
@@ -55,7 +55,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">A unique identifier for your material. It should begin with your Provider_ID, a colon, then an identifier for your material. Please see "Required Metadata" for full information. 
+          <t xml:space="preserve">Please leave this column </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>blank</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
 </t>
         </r>
       </text>
@@ -81,6 +100,15 @@
           </rPr>
           <t>std</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DBBA31E7-6718-7840-9643-C474D95B9B25}">
@@ -103,6 +131,15 @@
             <family val="2"/>
           </rPr>
           <t>public</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -234,19 +271,38 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Your </t>
+          <t>Please leave</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>assigned Provider_ID. It is unique to your organization.</t>
+          <t xml:space="preserve"> this column </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>blank</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -370,27 +426,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>ISO 8601 format.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">For example, </t>
+          <t xml:space="preserve">ISO 8601 format. For example, </t>
         </r>
         <r>
           <rPr>
@@ -398,7 +435,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
           <t>2023-11-05T08:15:30-05:00</t>
         </r>
@@ -407,18 +443,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time. </t>
         </r>
       </text>
     </comment>
@@ -429,36 +455,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">The start date of the material, in </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ISO 8601 format.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">For example, </t>
+          <t xml:space="preserve">The start date of the material, in ISO 8601 format. For example, </t>
         </r>
         <r>
           <rPr>
@@ -466,7 +464,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
           <t>2023-11-05T08:15:30-05:00</t>
         </r>
@@ -475,27 +472,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time. 
 </t>
         </r>
       </text>
@@ -531,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>visible_to</t>
   </si>
@@ -780,13 +758,34 @@
   </si>
   <si>
     <t>Publishers</t>
+  </si>
+  <si>
+    <t>Resource_URL_Type ▼</t>
+  </si>
+  <si>
+    <t>Language ▼</t>
+  </si>
+  <si>
+    <t>Cost ▼</t>
+  </si>
+  <si>
+    <t>Expertise_Level ▼</t>
+  </si>
+  <si>
+    <t>Learning_Outcome ▼</t>
+  </si>
+  <si>
+    <t>License ▼</t>
+  </si>
+  <si>
+    <t>Target_Group ▼</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -819,6 +818,17 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="4">
@@ -853,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -865,6 +875,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,8 +1289,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1290,7 +1306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="304800" y="304800"/>
-          <a:ext cx="11779250" cy="19043650"/>
+          <a:ext cx="11779250" cy="14554200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,321 +1435,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>subject</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> of the training material serves as a unique identifier in the catalog. It is NOT the subject of the training material. It is generally not displayed in the search results, and it is only used by the software as the unique key for the training material. See our wiki for the full details: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>https://github.com/HPC-ED/HPC-ED.github.io/wiki/Metadata-Description#subject-vocabulary</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>It should start with your </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Provider_ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, followed by a unique local identifier, concatenated by a colon. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;Provider_ID&gt;:&lt;unique_local_identifier&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>See below for details about </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Provider_ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>. The unique local identifier ideally should be from a local training catalog, but a randomly generated UUID or some other value can be used. When sharing training materials, this value determines whether a training material is new or being updated. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>For example, if your </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Provider_ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>urn:ogf.org:glue2:access-ci.org:resource:cider:infrastructure.organizations:111</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> and the local identifier of the training material is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>intro-to-cuda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, the subject becomes:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>urn:ogf.org:glue2:access-ci.org:resource:cider:infrastructure.organizations:111:intro-to-cuda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>. </a:t>
+            <a:t>Please leave this column blank. We will assign these columns.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -2770,118 +2472,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Provider_ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is a unique ID that identifies the organization or institution sharing the training materials. The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Provider_ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is assigned by request. It is also used to create the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>subject</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> metadata. It follows the format of</a:t>
+            <a:t>Please leave this column blank. We will assign these columns.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>urn:ogf.org:glue2:access-ci.org:resource:cider:infrastructure.organizations:&lt;XXXX&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400"/>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1400" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4897,25 +4490,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8510D-CCDD-4E41-BA93-3E1A91BD7FFA}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
-    <col min="14" max="15" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
     <col min="17" max="17" width="16.5" customWidth="1"/>
     <col min="18" max="18" width="16.83203125" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -4931,14 +4527,14 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
+      <c r="F1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -4949,23 +4545,23 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="L1" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
+      <c r="N1" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
+      <c r="P1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -4978,6 +4574,23 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4999,55 +4612,55 @@
           <x14:formula1>
             <xm:f>DD!$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" xr:uid="{CC6555FD-9823-4441-9F54-74FF1CA5B257}">
           <x14:formula1>
             <xm:f>DD!$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{8D5190AE-7F28-954C-838D-66B714609024}">
           <x14:formula1>
             <xm:f>DD!$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{F6243247-7D04-C947-A899-E17E51129977}">
           <x14:formula1>
             <xm:f>DD!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{F305E065-8ED4-074D-86EA-40C8B819B081}">
           <x14:formula1>
             <xm:f>DD!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{864FB277-AEAB-034A-8C57-51353B2B5C49}">
           <x14:formula1>
             <xm:f>DD!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:N1048576</xm:sqref>
+          <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{A6851DD8-8D2F-EE4E-8A51-56503DF0B1C8}">
           <x14:formula1>
             <xm:f>DD!$H$2:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{5CA5B71E-F53D-2D4F-BADE-97AB96C938D9}">
           <x14:formula1>
             <xm:f>DD!$I$2:$I$16</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:Q1048576</xm:sqref>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{75694CD9-F75F-9544-8F15-2F5BBA9B26EF}">
           <x14:formula1>
             <xm:f>DD!$C$2:$C$20</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/HPC-ED.xlsx
+++ b/HPC-ED.xlsx
@@ -5,20 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EE4C3-ACE8-2345-84B6-BB7730A4E5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE469523-70A9-C949-8AE3-5E177C301F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="500" windowWidth="40480" windowHeight="25240" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
+    <workbookView xWindow="13920" yWindow="500" windowWidth="45600" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
   <sheets>
-    <sheet name="About HPC-ED" sheetId="4" r:id="rId1"/>
-    <sheet name="HPC-ED Share" sheetId="1" r:id="rId2"/>
-    <sheet name="Required Metadata" sheetId="5" r:id="rId3"/>
-    <sheet name="Optional Metadata" sheetId="3" r:id="rId4"/>
-    <sheet name="Example" sheetId="6" r:id="rId5"/>
-    <sheet name="DD" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="share" sheetId="1" r:id="rId1"/>
+    <sheet name="Required Metadata" sheetId="5" r:id="rId2"/>
+    <sheet name="Optional Metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="Example" sheetId="6" r:id="rId4"/>
+    <sheet name="DD" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,7 +151,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The title of your material, e.g. Intro to Slurm</t>
+          <t>Title of the resource, e.g. Intro to Slurm</t>
         </r>
       </text>
     </comment>
@@ -165,7 +164,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A link to your material.</t>
+          <t>Link to the resource.</t>
         </r>
       </text>
     </comment>
@@ -178,7 +177,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The tpye of URL given. Most common choice is </t>
+          <t xml:space="preserve">URL type of the resource. Most common type is </t>
         </r>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Language the material is written in. For English, it is </t>
+          <t xml:space="preserve">Language the resource is written in. For English, it is </t>
         </r>
         <r>
           <rPr>
@@ -242,26 +241,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Whether the material charges for access. Typically, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>no</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> for free materials.</t>
+          <t xml:space="preserve">Is there a fee? </t>
         </r>
       </text>
     </comment>
@@ -272,18 +252,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Please leave</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> this column </t>
+          <t xml:space="preserve">Please leave this column </t>
         </r>
         <r>
           <rPr>
@@ -291,7 +261,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
           <t>blank</t>
         </r>
@@ -300,7 +269,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
           <t>.</t>
         </r>
@@ -315,7 +283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The abstract of your material.</t>
+          <t>Abstract describing the resource.</t>
         </r>
       </text>
     </comment>
@@ -328,7 +296,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The author(s) of the material. Use commas to separate for multiple auithors.</t>
+          <t>Author(s) of the resource. Use commas to separate multiple authors.</t>
         </r>
       </text>
     </comment>
@@ -341,7 +309,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The level of skill needed to complete the material.</t>
+          <t>Skill level required to complete the resource.</t>
         </r>
       </text>
     </comment>
@@ -354,7 +322,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The keywords that describe the material. What is the material about?</t>
+          <t>Keywords describing the resource. See 'Optional Metadata' for suggestions.</t>
         </r>
       </text>
     </comment>
@@ -367,7 +335,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The intended outcome of the material. What is your material hoping to achieve?</t>
+          <t>Educational goal of the resource.</t>
         </r>
       </text>
     </comment>
@@ -380,7 +348,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of material. Is it a recorded lesson? A lesson plan? Or a textbook?</t>
+          <t>Type of the resource. It could be textbook, recorded lecture, and so on.</t>
         </r>
       </text>
     </comment>
@@ -390,10 +358,10 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>The license of the material.</t>
+          <t>What license is the resource under?</t>
         </r>
       </text>
     </comment>
@@ -406,7 +374,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The target audience of the material. Who is it intended for?</t>
+          <t>Who are the intended audiences?</t>
         </r>
       </text>
     </comment>
@@ -419,32 +387,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The release date of the material, in </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-          </rPr>
-          <t xml:space="preserve">ISO 8601 format. For example, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-          </rPr>
-          <t>2023-11-05T08:15:30-05:00</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-          </rPr>
-          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time. </t>
+          <t xml:space="preserve">Last update of the resource. See 'Example' tab for samples. </t>
         </r>
       </text>
     </comment>
@@ -454,27 +397,10 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
           </rPr>
-          <t xml:space="preserve">The start date of the material, in ISO 8601 format. For example, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-          </rPr>
-          <t>2023-11-05T08:15:30-05:00</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-          </rPr>
-          <t xml:space="preserve"> for November 5, 2023, 8:15:30 am, US Eastern Standard Time. 
-</t>
+          <t xml:space="preserve">Date of the event. Only applicable to some resources. See 'Example' tab for samples. </t>
         </r>
       </text>
     </comment>
@@ -487,7 +413,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Estimated time to complete this material in minutes. </t>
+          <t xml:space="preserve">Estimated time to complete this resource in minutes. </t>
         </r>
       </text>
     </comment>
@@ -500,7 +426,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>From 0.0 to 5.0, the rating of the material.</t>
+          <t xml:space="preserve">If applicable, a rating of the resource from 0.0 to 5.0.
+</t>
         </r>
       </text>
     </comment>
@@ -509,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
   <si>
     <t>visible_to</t>
   </si>
@@ -586,18 +513,12 @@
     <t>std</t>
   </si>
   <si>
-    <t>urn:ogf.org:glue2:access-ci.org:resource:cider:infrastructure.organizations:000:wikipedia_example</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>urn:ogf.org:glue2:access-ci.org:resource:cider:infrastructure.organizations:000</t>
-  </si>
-  <si>
     <t>The Slurm Workload Manager, formerly known as Simple Linux Utility for Resource Management (SLURM), or simply Slurm, is a free and open-source job scheduler for Linux and Unix-like kernels, used by many of the world's supercomputers and computer clusters.</t>
   </si>
   <si>
@@ -779,6 +700,126 @@
   </si>
   <si>
     <t>Target_Group ▼</t>
+  </si>
+  <si>
+    <t>doi:10.22369/issn.2153-4136/1/1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Computational Algebraic Geometry as a Computational Science Elective</t>
+  </si>
+  <si>
+    <t>This paper presents a new mathematics elective for an undergraduate Computational Science program. Algebraic Geometry is a theoretical area of mathematics with a long history, often highlighted by extreme abstraction and difficulty.</t>
+  </si>
+  <si>
+    <t>Adam E. Parker</t>
+  </si>
+  <si>
+    <t>Computational Science, Course content, Grobner Bases, Methods of instruction, Tools for teaching</t>
+  </si>
+  <si>
+    <t>Journal article</t>
+  </si>
+  <si>
+    <t>Research Community, Educators, Students</t>
+  </si>
+  <si>
+    <t>2010-12-21T22:08:00-05:00</t>
+  </si>
+  <si>
+    <t>COMPLECS: Linux Tools for File Processing</t>
+  </si>
+  <si>
+    <t>https://education.sdsc.edu/training/interactive/202402-Linux-Tools-for-File-Processing</t>
+  </si>
+  <si>
+    <t>An overview of commonly used Linux tools for searching and manipulating text.</t>
+  </si>
+  <si>
+    <t>Igor Sfiligoi</t>
+  </si>
+  <si>
+    <t>Expanse, HPC Training, Industry, TSCC, Voyager</t>
+  </si>
+  <si>
+    <t>recorded lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	recorded lesson</t>
+  </si>
+  <si>
+    <t>2024-02-01T19:00:00-08:00</t>
+  </si>
+  <si>
+    <t>Spring: Spring MVC</t>
+  </si>
+  <si>
+    <t>https://www.lynda.com/Spring-tutorials/Spring-Spring-MVC/661807-2.html</t>
+  </si>
+  <si>
+    <t>Get acquainted with Spring MVC, an essential web framework for Java developers who work on enterprise-level projects. Throughout this practical course, instructor Shonna Smith steps through fundamental aspects of this framework, including Spring MVC controllers, models, and views. She also discusses the benefits of learning Spring MVC, explores custom app configuration, and provides exercises that can help you strengthen your understanding of key concepts. Upon completing this course, you'll have the knowledge you need to build robust MVC applications with Spring MVC.</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>Basic understanding</t>
+  </si>
+  <si>
+    <t>assessment item</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>2024-03-27T15:47:08-05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	OpenMP</t>
+  </si>
+  <si>
+    <t>https://cvw.cac.cornell.edu/openmp</t>
+  </si>
+  <si>
+    <t>Christopher Cameron, Steve Lantz, Peter Vaillancourt, CAC Staff (original)</t>
+  </si>
+  <si>
+    <t>OpenMP, multi-processing, parallelization, shared memory, reduction, data dependency, lock, atomic</t>
+  </si>
+  <si>
+    <t>asynchronous online training</t>
+  </si>
+  <si>
+    <t>Researchers, Research groups, Student</t>
+  </si>
+  <si>
+    <t>2022-06-01T00:00:00-05:00</t>
+  </si>
+  <si>
+    <t>Source: OpenMP OpenMP is an API specification for parallel programming, which is useful for a wide array of applications, including High Performance Computing (HPC). The OpenMP standard allows programmers to develop threaded parallel applications on shared-memory computers. This roadmap will guide you through an introduction to OpenMP, highlighting features from versions 3.0 and earlier, with examples of how to write programs that can effectively use multiple cores on a node for concurrent computation...</t>
+  </si>
+  <si>
+    <t>HPC Driver's Ed</t>
+  </si>
+  <si>
+    <t>https://docs.rcc.fsu.edu/driversed/</t>
+  </si>
+  <si>
+    <t>The HPC Driver's Ed is a collection of video lectures and quizzes that introduce users to the basics of High-Performance Computing and job submission on the Florida State University’s system. The course contains 22 videos across 7 modules ranging in topics from Account creation to Conda and Virtual environment setup for Python. The initial modules are separated into Track 1 and 2 accounting for those users that do not have command line experience so they can get a gentle introduction to its use while teaching them the same actions on our Open OnDemand portal.</t>
+  </si>
+  <si>
+    <t>Jose Hernandez, Marcelina Nagales, Alex Townsend</t>
+  </si>
+  <si>
+    <t>Proficient, Apply</t>
+  </si>
+  <si>
+    <t>training, ondemand, ssh, anaconda, slurm, job-submission</t>
+  </si>
+  <si>
+    <t>2024-04-06T08:33:00Z</t>
+  </si>
+  <si>
+    <t>Researchers, Students, Research Groups</t>
   </si>
 </sst>
 </file>
@@ -813,13 +854,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -829,6 +863,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
     </font>
   </fonts>
   <fills count="4">
@@ -901,25 +941,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4749800" cy="4537076"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A96EE6-CA22-BDB4-E5C9-8736BC63034E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA80064F-846B-763A-6712-84443A3D4CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,22 +962,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="304800"/>
-          <a:ext cx="11779250" cy="8775700"/>
+          <a:off x="476250" y="1612900"/>
+          <a:ext cx="4749800" cy="4537076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="83000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -955,325 +995,294 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>About HPC-ED</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HPC-ED was started when a group of HPC community members got together to discuss how difficult it was to find and share training materials. We created a survey and concluded that many people had noticed the same issue. Hence, HPC-ED was proposed as a CyberTraining Pilot Project to increase the visibility and accessibility of HPC training materials to the community. So far, we have developed several tools to help users search material from and share materials to a federated catalog containing metadata of training materials. This Excel notebook contains one such sharing method, described below. An overview of HPC-ED can be found on our GitHub: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="">
-                <a:extLst>
-                  <a:ext uri="{A12FA001-AC4F-418D-AE19-62706E023703}">
-                    <ahyp:hlinkClr xmlns:ahyp="http://schemas.microsoft.com/office/drawing/2018/hyperlinkcolor" val="tx"/>
-                  </a:ext>
-                </a:extLst>
-              </a:hlinkClick>
-            </a:rPr>
-            <a:t>https://github.com/HPC-ED/HPC-ED.github.io/wiki</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A noteworthy detail about this project is that training material contents are NOT directly stored in the HPC-ED catalogs. HPC-ED only stores the metadata of the training material, such as the URL, title, authors, and so on. This approach to storing metadata enables the training materials to be fully maintained by the material providers while increasing visibility to the broad HPC community.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Preparation to Share</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HPC-ED catalogs, which store training material metadata, are implemented using Globus Search Indexes. While Globus offers several methods to access the catalogs, they require some working knowledge of Globus API and JSON files, which complicates the accessibility of training materials. To simplify the process, this Excel notebook details one sharing method that only involves Excel and writing an email to HPC-ED (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Remove this text box if needed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps to Share Resources</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For each resource you want to share to the HPC-ED catalog, collect the corresponding metadata and fill out a row in this spreadsheet. Email this spreadsheet to HPC-ED (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
             <a:t>hpc-ed-train@gmail.com</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>To start sharing training materials to the HPC-ED catalogs, you should prepare the metadata of the training materials. HPC-ED collects a set of metadata for each training material. Some metadata are required and others are optional. The metadata descriptions can be found in the “Required Metadata” and “Optional Metadata” worksheet tabs. It is also documented in our GitHub: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) and we will finalize the sharing process.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For metadata descriptions, see “Required Metadata” and “Optional Metadata” tabs. It is also documented in our GitHub: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
             <a:t>https://github.com/HPC-ED/HPC-ED.github.io/wiki/Metadata-Description</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Steps to Share HPC Training Material</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1600" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>For each training material you want to share with HPC-ED, navigate to the 'HPC-ED Share' worksheet tab and begin a new row. Complete the cells with the corresponding metadata as indicated by the column headers. Column headers in a blue background indicate required metadata, and column headers in an orange background indicate optional metadata. For</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> a sample row, see the first row of the 'Example' worksheet tab. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Once these steps are completed for all the training materials, save this notebook and send it to HPC-ED (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>hpc-ed-train@gmail.com</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>). After validating the metadata, we will notify you and share the training materials to the HPC-ED catalogs, making them visible to the public.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0">
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For example metadata values, see ‘Example’ tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Important Tips</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>●  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Blue headers are required metadata and orange headers are optional metadata. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>●  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dropdown is available for columns with the triangle symbol (▼).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>●  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hover over column names to see simple descriptions.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1374,7 +1383,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Below is a list of metadata required for all training materials. Training materials missing any required metadata cannot be added to the catalog. In the “HPC-ED Share” worksheet tab, the column headers of these metadata are highlighted in blue backgrounds. </a:t>
+            <a:t>Below is a list of required metadata. Resources missing any required metadata cannot be shared to the catalog. In the “share” tab,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>column headers of required metadata are highlighted in blue. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="0">
             <a:effectLst/>
@@ -1435,7 +1468,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Please leave this column blank. We will assign these columns.</a:t>
+            <a:t>Please leave this column blank. We will assign this column.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -1519,7 +1552,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata is required by Globus and it is the same for all training materials in the catalog. The value should always be </a:t>
+            <a:t> metadata is required by the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> catalog</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and it is the same for all resources. The value should always be </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -1627,7 +1684,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata is required by Globus and it is the same for all training materials in the catalog. The value should always be </a:t>
+            <a:t> metadata is required by the catalog and it is the same for all resources. The value should always be </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -1759,7 +1816,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> training materials. An example title is </a:t>
+            <a:t> resource. An example title is </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng" strike="noStrike" baseline="0">
@@ -1877,7 +1934,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata should hold the link to the training materials. The value should be a link and redirect to the material when it is opened in the web browser. </a:t>
+            <a:t> metadata should be the links to the resources. The value should be a link and redirect to the resource when it is opened in the web browser. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -1962,7 +2019,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the type of URL of the </a:t>
+            <a:t> metadata indicates the URL type of the </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
@@ -1986,7 +2043,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata value. The most common type is </a:t>
+            <a:t> metadata. The most common type is </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -2010,7 +2067,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, which indicates the training material is hosted on a website. Other useful types may include </a:t>
+            <a:t>, which means the resource is on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> a website. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Other useful types may include </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -2188,7 +2269,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the language the training material is written in. The value should be in ISO639-1 code. For English, the value is </a:t>
+            <a:t> metadata is the language the resource is written in,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ISO639-1 code. For English, the value is </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -2318,7 +2423,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata describes if access to the training material requires payment. For example, materials with free access have the value </a:t>
+            <a:t> metadata describes if there is a fee to access the resource. For example, free</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> resources </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>have the value </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -2342,7 +2471,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, materials with paid access have the value </a:t>
+            <a:t>, paid resources have the value </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -2366,7 +2495,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, and materials with mixed access have the value </a:t>
+            <a:t>, and mixed resources have the value </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -2390,7 +2519,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>. An additional list of values can be found here (in the ID column): </a:t>
+            <a:t>. An additional list of values can be found here (the ID column): </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
@@ -2472,7 +2601,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Please leave this column blank. We will assign these columns.</a:t>
+            <a:t>Please leave this column blank. We will assign this column.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -2584,18 +2713,77 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Below is a list of optional metadata. To exclude specific metadata from the catalog, leave the corresponding cell under the metadata column header blank. In the “HPC-ED Share” worksheet tab, the column headers of these metadata are highlighted in orange backgrounds. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en-US" sz="1800" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
+            <a:t>Below is a list of optional metadata. To exclude specific metadata from the catalog, leave the columns</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blank.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In the “share” tab, column headers of optional metadata are highlighted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in orange. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
           <a:br>
             <a:rPr lang="en-US" sz="1600" b="0">
               <a:effectLst/>
@@ -2667,7 +2855,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata is the abstract of the training materials.</a:t>
+            <a:t> metadata is the abstract of the resource.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -2751,7 +2939,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata holds the author or the list of authors of the training material. For multiple authors, separate each author by a comma. </a:t>
+            <a:t> metadata is the author or the list of authors of the resource. For multiple authors, separate them by commas. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -2835,7 +3023,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the difficulty of the training material or the skill of the targeted audience. A training material can be tagged with one or more expertise levels. If multiple levels apply, separate them with commas. The recommended values are: </a:t>
+            <a:t> metadata is the skill level to complete the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> resource. Resources</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> can be tagged with one or more expertise levels. If multiple skill levels apply, separate them with commas. The recommended values are: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng" strike="noStrike">
@@ -3015,7 +3227,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata lists keywords that describe the training material. Each keyword is separated by a comma. The recommended values can be found here: </a:t>
+            <a:t> metadata lists keywords that describe the resource. Keywords are separated by commas. The recommended values can be found here: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
@@ -3120,7 +3332,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the desired outcome of the training material. A training material can be tagged with one or more outcomes. If multiple outcomes apply, separate them with commas. The recommended values are: </a:t>
+            <a:t> metadata is the educational goal of the resource. Resources can be tagged with one or more outcomes. If multiple outcomes apply, separate them with commas. The recommended values are: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng" strike="noStrike">
@@ -3354,7 +3566,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the type of the training material. For example, a recorded lecture could have the value </a:t>
+            <a:t> metadata indicates the type of the resource. For example, a recorded lecture has the value </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
@@ -3507,7 +3719,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata is the license for the training materials itself. Possible licenses are </a:t>
+            <a:t> metadata is the license of the resource. Possible licenses are </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng" strike="noStrike">
@@ -3732,7 +3944,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the target audience of the training material. A training material can be tagged with one or more target groups. If there are multiple target groups, separate them with commas. The recommended values are here, but feel free to create your own: </a:t>
+            <a:t> metadata is the target audience of the resource. Resources can be tagged with one or more target groups. If there are multiple target groups, separate them with commas. The recommended values are here, but feel free to create your own: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="sng" strike="noStrike">
@@ -3836,7 +4048,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates when the training material was released in ISO8601 datetime with timezone. For example, </a:t>
+            <a:t> metadata indicates when the resource was last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated, in ISO8601 datetime with timezone. For example, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng" strike="noStrike">
@@ -3860,7 +4096,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> for November 5, 2023, 8:15:30 am, US Eastern Standard Time.</a:t>
+            <a:t> represents November 5, 2023, 8:15:30 am, US Eastern Standard Time.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -3945,7 +4181,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates when is/was the live/recorded learning resource event in ISO8601 datetime with timezone. For example, </a:t>
+            <a:t> metadata indicates when the resource ocurred,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in ISO8601 datetime with timezone. This metadata</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is only applicable to recorded resources. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For example, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng" strike="noStrike">
@@ -3969,7 +4253,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> for November 5, 2023, 8:15:30 am, US Eastern Standard Time.</a:t>
+            <a:t> represents November 5, 2023, 8:15:30 am, US Eastern Standard Time.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -4053,7 +4337,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the estimated time to complete the training material in minutes.</a:t>
+            <a:t> metadata indicates the estimated time to complete the resource in minutes.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -4138,7 +4422,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> metadata indicates the average rating in the 0.0 to 5.0 range of the training material.</a:t>
+            <a:t> metadata indicates the average rating in the 0.0 to 5.0 range of the resource.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0">
             <a:effectLst/>
@@ -4467,32 +4751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C69D2F2-B568-FE41-9C76-5B9104F119A5}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="5" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8510D-CCDD-4E41-BA93-3E1A91BD7FFA}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4528,13 +4794,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -4546,22 +4812,22 @@
         <v>12</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -4587,10 +4853,10 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4604,7 +4870,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
@@ -4668,7 +4935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366E8EF4-E9B4-7147-BF31-AFD009E6CA0D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4684,7 +4951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8770CA9D-1C2A-1F43-81EC-A843C8FF83CD}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -4701,29 +4968,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240DDFF7-FACE-484B-8EC6-C41F27E154A7}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
-    <col min="19" max="19" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="24.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="56" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="16.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="5"/>
+    <col min="17" max="17" width="22.83203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="5" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -4792,9 +5066,6 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -4811,44 +5082,270 @@
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
       <c r="T2" s="5">
         <v>20</v>
       </c>
-      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="5">
+        <v>30</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="5">
+        <v>120</v>
+      </c>
+      <c r="U7" s="5">
+        <v>4.2</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -4856,7 +5353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683CD10C-CB17-944A-A98A-18937D0E890D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -4914,196 +5411,196 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
